--- a/sidetalsvejledning.xlsx
+++ b/sidetalsvejledning.xlsx
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -567,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -715,7 +715,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
         <f>SUM(B3:B41)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="C44">
         <f>SUM(C3:C41)</f>
@@ -723,7 +723,7 @@
       </c>
       <c r="D44">
         <f>B44+C44</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
